--- a/data_processed/data.xlsx
+++ b/data_processed/data.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>literature</t>
+          <t>literate</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">

--- a/data_processed/data.xlsx
+++ b/data_processed/data.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>literate</t>
+          <t>illiterate</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
